--- a/sampleoutput.xlsx
+++ b/sampleoutput.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhairya\python\tradingAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A03FD58B-BB5B-4885-9BD0-2288F70B8703}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87D4D16-0D7E-4AA9-9368-11CDED4E9169}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{1F46388F-0610-47F3-BBF2-5CD3B12549F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>purchase_price</t>
   </si>
@@ -72,6 +73,48 @@
   </si>
   <si>
     <t>mail</t>
+  </si>
+  <si>
+    <t>holder</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>per_gain_loss</t>
+  </si>
+  <si>
+    <t>per_growth</t>
+  </si>
+  <si>
+    <t>tot_gain_loss</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>mark_cap</t>
+  </si>
+  <si>
+    <t>week52high</t>
+  </si>
+  <si>
+    <t>week52low</t>
+  </si>
+  <si>
+    <t>expectance</t>
+  </si>
+  <si>
+    <t>=(cp/pp)*100</t>
+  </si>
+  <si>
+    <t>=(cp-pp)</t>
+  </si>
+  <si>
+    <t>=IF((cd-pd)/365&gt;1,per_gain_loss/((cd-pd)/365),per_gain_loss)</t>
+  </si>
+  <si>
+    <t>=((cp-pp)/pp)*100</t>
   </si>
 </sst>
 </file>
@@ -130,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -138,6 +181,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +579,7 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="I2" s="5">
         <v>2</v>
@@ -567,11 +616,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796660F2-9C5E-49E4-A46F-6D5EDE395004}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1971AF5-DC45-4188-81EB-5DED04A2791D}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,13 +780,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="C2" s="2">
         <v>44336</v>
       </c>
       <c r="D2" s="6">
-        <v>4</v>
+        <v>3.24</v>
       </c>
       <c r="E2" s="6">
         <v>30000</v>
@@ -653,30 +796,30 @@
       </c>
       <c r="G2">
         <f>D2-B2</f>
-        <v>3</v>
+        <v>1.4900000000000002</v>
       </c>
       <c r="H2" s="1">
         <f>G2/B2</f>
-        <v>3</v>
+        <v>0.85142857142857153</v>
       </c>
       <c r="I2" s="1">
         <f>D2/B2</f>
-        <v>4</v>
+        <v>1.8514285714285716</v>
       </c>
       <c r="J2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">IF((J2-C2)/365&gt;1,H2/((J2-C2)/365),H2)</f>
-        <v>3</v>
+        <v>0.85142857142857153</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
       </c>
       <c r="M2" t="str">
         <f>IF(L2&lt;=H2," Send a mail", "-")</f>
-        <v xml:space="preserve"> Send a mail</v>
+        <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -688,11 +831,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640F1BEA-A188-412F-8DCC-97D54C85A9D3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
